--- a/xlsx/plate with hole.xlsx
+++ b/xlsx/plate with hole.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22019\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22019\Desktop\test\u-p-mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6E7333-E50C-4BEC-BF69-86BC62CB6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A898E8D8-1E36-4898-8193-F61A9D167148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="11020" windowHeight="18700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19740" yWindow="195" windowWidth="16560" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G14"/>
+  <dimension ref="B3:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,11 +471,11 @@
         <v>-1.38950102962264</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C14">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C13">
         <v>-2.4989345183511298</v>
       </c>
-      <c r="D14">
+      <c r="D13">
         <v>-1.5874969428385901</v>
       </c>
     </row>
